--- a/biology/Médecine/Veine_poplitée/Veine_poplitée.xlsx
+++ b/biology/Médecine/Veine_poplitée/Veine_poplitée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_poplit%C3%A9e</t>
+          <t>Veine_poplitée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine poplitée est une veine du membre inférieur située dans la fosse poplitée. Elle est satellite de l'artère poplitée à l'arrière du genou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_poplit%C3%A9e</t>
+          <t>Veine_poplitée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine poplitée nait de la fusion des veines tibiales antérieure et postérieure au niveau du bord inférieur du muscle poplité.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_poplit%C3%A9e</t>
+          <t>Veine_poplitée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine poplitée chemine dans la fosse poplitée entre l'artère poplitée en dedans et le nerf tibial en dehors. 
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_poplit%C3%A9e</t>
+          <t>Veine_poplitée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine poplitée devient la veine fémorale en passant par le hiatus adducteur dans le canal des adducteurs.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veine_poplit%C3%A9e</t>
+          <t>Veine_poplitée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +622,14 @@
           <t>Affluents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans son trajet la veine poplitée reçoit :
 les deux veines surales (ou veines jumelles) satellites des artères surales,
 les veines géniculées (ou veines du genou) satellites de l’ensemble des artères supéro-latérale, inféro-latérale, supéro-médiale et inféro-médiale du genou. et drainant le réseau articulaire du genou,
-la veine petite saphène, qui perce le fascia profond et passe entre les deux têtes du muscle gastrocnémien pour se terminer dans la veine poplitée[1],[2].</t>
+la veine petite saphène, qui perce le fascia profond et passe entre les deux têtes du muscle gastrocnémien pour se terminer dans la veine poplitée,.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Veine_poplit%C3%A9e</t>
+          <t>Veine_poplitée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Variation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine poplitée peut être doublée pour environ 35 % des personnes[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine poplitée peut être doublée pour environ 35 % des personnes.
 </t>
         </is>
       </c>
